--- a/modules/crm/pedidos/documentos/Formato subir productos al pedidos.xlsx
+++ b/modules/crm/pedidos/documentos/Formato subir productos al pedidos.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollador soft\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AAF95-0754-4750-ABA2-C0C0FA49EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E15F5F-0176-4152-BBF7-B04C36D5C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3213115-9041-4F6F-A4FA-0A3CA6A0EAC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Producto pedido" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CODIGO</t>
   </si>
@@ -55,22 +55,10 @@
     <t>19175200000</t>
   </si>
   <si>
-    <t>01210200000</t>
-  </si>
-  <si>
-    <t>03210206600</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRTO. NORMAL 2000 PSI TM 1" </t>
   </si>
   <si>
     <t>MORT. GROUTING 2500 PSI TM 1/2"</t>
-  </si>
-  <si>
-    <t>CRTO. NORMAL 3000 PSI TM 1/2"</t>
-  </si>
-  <si>
-    <t>CRTO. PLASTICO 3000 PSI TM 1/2&amp;quot; FUERA DE HOND…</t>
   </si>
 </sst>
 </file>
@@ -106,9 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,8 +122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{759C6086-F294-4A6C-B497-59613A8FC75B}" name="Tabla1" displayName="Tabla1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{759C6086-F294-4A6C-B497-59613A8FC75B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{759C6086-F294-4A6C-B497-59613A8FC75B}" name="Tabla1" displayName="Tabla1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{759C6086-F294-4A6C-B497-59613A8FC75B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A26E6ABC-C1E4-4C5F-BE2C-8384A86BFB1C}" name="CODIGO" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6181C50A-1B86-48FA-997A-2E6AB20E3FA7}" name="NOMBRE"/>
@@ -440,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB104DF-64E0-4FEA-8877-B8A08D93F96D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +443,7 @@
     <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -487,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -496,38 +488,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="El valor tiene que ser mayor que cero." sqref="C1:C1048576" xr:uid="{09A84A93-E30A-4E47-9EBA-22247B8A3A27}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="El codigo del producto tiene que tener 11 caracteres._x000a_" sqref="A1:A1048576" xr:uid="{0166EC78-3145-430C-89A8-7C762C010F25}">
+      <formula1>11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>